--- a/funds/stocks/陕西煤业&财务报表同型分析.xlsx
+++ b/funds/stocks/陕西煤业&财务报表同型分析.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20603" windowHeight="8495" firstSheet="1" activeTab="3"/>
+    <workbookView windowWidth="20603" windowHeight="8495" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="资产&amp;负债结构分析" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="210">
   <si>
     <t>项目</t>
   </si>
@@ -381,22 +381,34 @@
     <t>自由现金流均值(FCF)</t>
   </si>
   <si>
+    <t>EBIT</t>
+  </si>
+  <si>
     <t>营业外支出</t>
   </si>
   <si>
     <t>折现率(r)</t>
   </si>
   <si>
+    <t>经营杠杆</t>
+  </si>
+  <si>
     <t>持续经营净利润</t>
   </si>
   <si>
     <t>永续年金增长率(g)</t>
   </si>
   <si>
+    <t>财务杠杆</t>
+  </si>
+  <si>
     <t>毛利</t>
   </si>
   <si>
     <t>自由现金流增长率(G)</t>
+  </si>
+  <si>
+    <t>总杠杆</t>
   </si>
   <si>
     <t>毛利率</t>
@@ -644,11 +656,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="0.0%"/>
     <numFmt numFmtId="178" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="179" formatCode="\+0;\-0;0;@"/>
@@ -720,38 +732,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -763,52 +754,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -824,24 +775,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -857,7 +815,61 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -902,19 +914,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -926,7 +926,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -938,37 +938,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -980,67 +962,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1058,13 +980,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1082,7 +1082,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1151,38 +1163,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1204,11 +1186,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1216,17 +1211,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1245,6 +1246,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1253,10 +1265,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1265,137 +1277,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="36" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1526,6 +1538,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1972,15 +1987,15 @@
       <c r="I4" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="53">
+      <c r="J4" s="54">
         <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!J18</f>
         <v>1.7</v>
       </c>
-      <c r="K4" s="53">
+      <c r="K4" s="54">
         <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!K18</f>
         <v>0</v>
       </c>
-      <c r="L4" s="53">
+      <c r="L4" s="54">
         <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!L18</f>
         <v>33</v>
       </c>
@@ -2157,15 +2172,15 @@
       <c r="C10" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="56">
+      <c r="D10" s="57">
         <f>D4/D9</f>
         <v>0.55276916005975</v>
       </c>
-      <c r="E10" s="56">
+      <c r="E10" s="57">
         <f>E4/E9</f>
         <v>0.416314870655451</v>
       </c>
-      <c r="F10" s="56">
+      <c r="F10" s="57">
         <f>F4/F9</f>
         <v>0.332226781051846</v>
       </c>
@@ -2188,15 +2203,15 @@
       <c r="C11" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="56">
+      <c r="D11" s="57">
         <f>D5/D9</f>
         <v>0.0432034930483741</v>
       </c>
-      <c r="E11" s="56">
+      <c r="E11" s="57">
         <f>E5/E9</f>
         <v>0.301507697190922</v>
       </c>
-      <c r="F11" s="56">
+      <c r="F11" s="57">
         <f>F5/F9</f>
         <v>0.363894069377098</v>
       </c>
@@ -2219,15 +2234,15 @@
       <c r="C12" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="56">
+      <c r="D12" s="57">
         <f>D6/D9</f>
         <v>0.168562564632885</v>
       </c>
-      <c r="E12" s="56">
+      <c r="E12" s="57">
         <f>E6/E9</f>
         <v>0.131756863989843</v>
       </c>
-      <c r="F12" s="56">
+      <c r="F12" s="57">
         <f>F6/F9</f>
         <v>0.172286460276016</v>
       </c>
@@ -2235,15 +2250,15 @@
       <c r="I12" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="56">
+      <c r="J12" s="57">
         <f t="shared" ref="J12:L12" si="0">J4/J11</f>
         <v>0.00609187988246255</v>
       </c>
-      <c r="K12" s="56">
+      <c r="K12" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L12" s="56">
+      <c r="L12" s="57">
         <f t="shared" si="0"/>
         <v>0.114734719421459</v>
       </c>
@@ -2253,15 +2268,15 @@
       <c r="C13" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="56">
+      <c r="D13" s="57">
         <f>D7/D9</f>
         <v>0.0615879581753418</v>
       </c>
-      <c r="E13" s="56">
+      <c r="E13" s="57">
         <f>E7/E9</f>
         <v>0.0571020472940803</v>
       </c>
-      <c r="F13" s="56">
+      <c r="F13" s="57">
         <f>F7/F9</f>
         <v>0.0469227900037299</v>
       </c>
@@ -2269,15 +2284,15 @@
       <c r="I13" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="J13" s="56">
+      <c r="J13" s="57">
         <f t="shared" ref="J13:L13" si="1">J5/J11</f>
         <v>0.17093098258439</v>
       </c>
-      <c r="K13" s="56">
+      <c r="K13" s="57">
         <f t="shared" si="1"/>
         <v>0.186373304508525</v>
       </c>
-      <c r="L13" s="56">
+      <c r="L13" s="57">
         <f t="shared" si="1"/>
         <v>0.15989847715736</v>
       </c>
@@ -2287,15 +2302,15 @@
       <c r="C14" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="56">
+      <c r="D14" s="57">
         <f>D8/D9</f>
         <v>0.0377456049638056</v>
       </c>
-      <c r="E14" s="56">
+      <c r="E14" s="57">
         <f>E8/E9</f>
         <v>0.0340898270115855</v>
       </c>
-      <c r="F14" s="56">
+      <c r="F14" s="57">
         <f>F8/F9</f>
         <v>0.0313688922044013</v>
       </c>
@@ -2303,15 +2318,15 @@
       <c r="I14" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="J14" s="56">
+      <c r="J14" s="57">
         <f t="shared" ref="J14:L14" si="2">J6/J11</f>
         <v>0.344513724647029</v>
       </c>
-      <c r="K14" s="56">
+      <c r="K14" s="57">
         <f t="shared" si="2"/>
         <v>0.352662226716413</v>
       </c>
-      <c r="L14" s="56">
+      <c r="L14" s="57">
         <f t="shared" si="2"/>
         <v>0.306411237048884</v>
       </c>
@@ -2323,15 +2338,15 @@
       <c r="C15" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="57">
+      <c r="D15" s="58">
         <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!D12</f>
         <v>121.04</v>
       </c>
-      <c r="E15" s="57">
+      <c r="E15" s="58">
         <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!E12</f>
         <v>103.5</v>
       </c>
-      <c r="F15" s="57">
+      <c r="F15" s="58">
         <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!F12</f>
         <v>53.04</v>
       </c>
@@ -2339,15 +2354,15 @@
       <c r="I15" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="J15" s="56">
+      <c r="J15" s="57">
         <f t="shared" ref="J15:L15" si="3">J7/J11</f>
         <v>0</v>
       </c>
-      <c r="K15" s="56">
+      <c r="K15" s="57">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L15" s="56">
+      <c r="L15" s="57">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2370,15 +2385,15 @@
       <c r="I16" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="J16" s="56">
+      <c r="J16" s="57">
         <f t="shared" ref="J16:L16" si="4">J8/J11</f>
         <v>0.0414964523758332</v>
       </c>
-      <c r="K16" s="56">
+      <c r="K16" s="57">
         <f t="shared" si="4"/>
         <v>0.0430279995815754</v>
       </c>
-      <c r="L16" s="56">
+      <c r="L16" s="57">
         <f t="shared" si="4"/>
         <v>0.0434601209929768</v>
       </c>
@@ -2404,15 +2419,15 @@
       <c r="I17" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="J17" s="56">
+      <c r="J17" s="57">
         <f t="shared" ref="J17:L17" si="5">J9/J11</f>
         <v>0.11244893571275</v>
       </c>
-      <c r="K17" s="56">
+      <c r="K17" s="57">
         <f t="shared" si="5"/>
         <v>0.14693678301196</v>
       </c>
-      <c r="L17" s="56">
+      <c r="L17" s="57">
         <f t="shared" si="5"/>
         <v>0.122418468813017</v>
       </c>
@@ -2435,15 +2450,15 @@
       <c r="I18" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="J18" s="56">
+      <c r="J18" s="57">
         <f t="shared" ref="J18:L18" si="6">J10/J11</f>
         <v>0</v>
       </c>
-      <c r="K18" s="56">
+      <c r="K18" s="57">
         <f t="shared" si="6"/>
         <v>0.0449457791415321</v>
       </c>
-      <c r="L18" s="56">
+      <c r="L18" s="57">
         <f t="shared" si="6"/>
         <v>0.034455183923232</v>
       </c>
@@ -2468,15 +2483,15 @@
       <c r="I19" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="J19" s="53">
+      <c r="J19" s="54">
         <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!J17</f>
         <v>90.71</v>
       </c>
-      <c r="K19" s="53">
+      <c r="K19" s="54">
         <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!K17</f>
         <v>119.41</v>
       </c>
-      <c r="L19" s="53">
+      <c r="L19" s="54">
         <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!L17</f>
         <v>107.22</v>
       </c>
@@ -2502,15 +2517,15 @@
       <c r="I20" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="J20" s="53">
+      <c r="J20" s="54">
         <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!J16</f>
         <v>53.17</v>
       </c>
-      <c r="K20" s="53">
+      <c r="K20" s="54">
         <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!K16</f>
         <v>53.33</v>
       </c>
-      <c r="L20" s="53">
+      <c r="L20" s="54">
         <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!L16</f>
         <v>52.27</v>
       </c>
@@ -2564,15 +2579,15 @@
       <c r="I22" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="J22" s="53">
+      <c r="J22" s="54">
         <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!J11</f>
         <v>1.79</v>
       </c>
-      <c r="K22" s="53">
+      <c r="K22" s="54">
         <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!K11</f>
         <v>1.78</v>
       </c>
-      <c r="L22" s="53">
+      <c r="L22" s="54">
         <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!L11</f>
         <v>2.01</v>
       </c>
@@ -2641,15 +2656,15 @@
       <c r="C25" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D25" s="56">
+      <c r="D25" s="57">
         <f>D15/D24</f>
         <v>0.131748519679554</v>
       </c>
-      <c r="E25" s="56">
+      <c r="E25" s="57">
         <f>E15/E24</f>
         <v>0.11625947767481</v>
       </c>
-      <c r="F25" s="56">
+      <c r="F25" s="57">
         <f>F15/F24</f>
         <v>0.0674826331458816</v>
       </c>
@@ -2657,15 +2672,15 @@
       <c r="I25" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="J25" s="56">
+      <c r="J25" s="57">
         <f t="shared" ref="J25:L25" si="7">J4/J11</f>
         <v>0.00609187988246255</v>
       </c>
-      <c r="K25" s="56">
+      <c r="K25" s="57">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L25" s="56">
+      <c r="L25" s="57">
         <f t="shared" si="7"/>
         <v>0.114734719421459</v>
       </c>
@@ -2675,15 +2690,15 @@
       <c r="C26" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="56">
+      <c r="D26" s="57">
         <f>D16/D24</f>
         <v>0.0115813305468478</v>
       </c>
-      <c r="E26" s="56">
+      <c r="E26" s="57">
         <f>E16/E24</f>
         <v>0</v>
       </c>
-      <c r="F26" s="56">
+      <c r="F26" s="57">
         <f>F16/F24</f>
         <v>0</v>
       </c>
@@ -2691,15 +2706,15 @@
       <c r="I26" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="J26" s="56">
+      <c r="J26" s="57">
         <f t="shared" ref="J26:L26" si="8">J19/J24</f>
         <v>0.401247401247401</v>
       </c>
-      <c r="K26" s="56">
+      <c r="K26" s="57">
         <f t="shared" si="8"/>
         <v>0.46897337208389</v>
       </c>
-      <c r="L26" s="56">
+      <c r="L26" s="57">
         <f t="shared" si="8"/>
         <v>0.593195020746888</v>
       </c>
@@ -2709,15 +2724,15 @@
       <c r="C27" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="56">
+      <c r="D27" s="57">
         <f>D17/D24</f>
         <v>0.437663270637409</v>
       </c>
-      <c r="E27" s="56">
+      <c r="E27" s="57">
         <f>E17/E24</f>
         <v>0.455467565290649</v>
       </c>
-      <c r="F27" s="56">
+      <c r="F27" s="57">
         <f>F17/F24</f>
         <v>0.404043359881931</v>
       </c>
@@ -2725,15 +2740,15 @@
       <c r="I27" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="J27" s="56">
+      <c r="J27" s="57">
         <f t="shared" ref="J27:L27" si="9">J20/J24</f>
         <v>0.235192639447959</v>
       </c>
-      <c r="K27" s="56">
+      <c r="K27" s="57">
         <f t="shared" si="9"/>
         <v>0.20944937554002</v>
       </c>
-      <c r="L27" s="56">
+      <c r="L27" s="57">
         <f t="shared" si="9"/>
         <v>0.289183955739972</v>
       </c>
@@ -2743,15 +2758,15 @@
       <c r="C28" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="56">
+      <c r="D28" s="57">
         <f>D18/D24</f>
         <v>0</v>
       </c>
-      <c r="E28" s="56">
+      <c r="E28" s="57">
         <f>E18/E24</f>
         <v>0.135669755686605</v>
       </c>
-      <c r="F28" s="56">
+      <c r="F28" s="57">
         <f>F18/F24</f>
         <v>0.185679024911575</v>
       </c>
@@ -2759,15 +2774,15 @@
       <c r="I28" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="J28" s="56">
+      <c r="J28" s="57">
         <f t="shared" ref="J28:L28" si="10">J21/J24</f>
         <v>0</v>
       </c>
-      <c r="K28" s="56">
+      <c r="K28" s="57">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L28" s="56">
+      <c r="L28" s="57">
         <f t="shared" si="10"/>
         <v>9.06168741355463e-5</v>
       </c>
@@ -2777,15 +2792,15 @@
       <c r="C29" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="D29" s="56">
+      <c r="D29" s="57">
         <f>D19/D24</f>
         <v>0.00247082897944967</v>
       </c>
-      <c r="E29" s="56">
+      <c r="E29" s="57">
         <f>E19/E24</f>
         <v>0.00274080314518394</v>
       </c>
-      <c r="F29" s="56">
+      <c r="F29" s="57">
         <f>F19/F24</f>
         <v>0.00583984325300898</v>
       </c>
@@ -2793,15 +2808,15 @@
       <c r="I29" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="J29" s="56">
+      <c r="J29" s="57">
         <f t="shared" ref="J29:L29" si="11">J22/J24</f>
         <v>0.00791790153492281</v>
       </c>
-      <c r="K29" s="56">
+      <c r="K29" s="57">
         <f t="shared" si="11"/>
         <v>0.00699080983426282</v>
       </c>
-      <c r="L29" s="56">
+      <c r="L29" s="57">
         <f t="shared" si="11"/>
         <v>0.0111203319502075</v>
       </c>
@@ -2811,15 +2826,15 @@
       <c r="C30" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="D30" s="56">
+      <c r="D30" s="57">
         <f>D20/D24</f>
         <v>0.237319313827935</v>
       </c>
-      <c r="E30" s="56">
+      <c r="E30" s="57">
         <f>E20/E24</f>
         <v>0.252704296545914</v>
       </c>
-      <c r="F30" s="56">
+      <c r="F30" s="57">
         <f>F20/F24</f>
         <v>0.290414514364233</v>
       </c>
@@ -2827,15 +2842,15 @@
       <c r="I30" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="J30" s="56">
+      <c r="J30" s="57">
         <f t="shared" ref="J30:L30" si="12">J23/J24</f>
         <v>4.46852744725085e-5</v>
       </c>
-      <c r="K30" s="56">
+      <c r="K30" s="57">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="L30" s="56">
+      <c r="L30" s="57">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -2845,15 +2860,15 @@
       <c r="C31" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="D31" s="56">
+      <c r="D31" s="57">
         <f>D21/D24</f>
         <v>0.000139822796934866</v>
       </c>
-      <c r="E31" s="56">
+      <c r="E31" s="57">
         <f>E21/E24</f>
         <v>0</v>
       </c>
-      <c r="F31" s="56">
+      <c r="F31" s="57">
         <f>F21/F24</f>
         <v>0</v>
       </c>
@@ -2863,15 +2878,15 @@
       <c r="C32" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="D32" s="56">
+      <c r="D32" s="57">
         <f>D22/D24</f>
         <v>0</v>
       </c>
-      <c r="E32" s="56">
+      <c r="E32" s="57">
         <f>E22/E24</f>
         <v>9.80466161190677e-5</v>
       </c>
-      <c r="F32" s="56">
+      <c r="F32" s="57">
         <f>F22/F24</f>
         <v>0.000111053716379552</v>
       </c>
@@ -2881,15 +2896,15 @@
       <c r="C33" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="D33" s="56">
+      <c r="D33" s="57">
         <f t="shared" ref="D33:F33" si="13">D23/D24</f>
         <v>0.00167624521072797</v>
       </c>
-      <c r="E33" s="56">
+      <c r="E33" s="57">
         <f t="shared" si="13"/>
         <v>0.000697109800617804</v>
       </c>
-      <c r="F33" s="56">
+      <c r="F33" s="57">
         <f t="shared" si="13"/>
         <v>0.00148858749586503</v>
       </c>
@@ -3171,7 +3186,7 @@
       </c>
     </row>
     <row r="11" spans="2:12">
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="48" t="s">
         <v>64</v>
       </c>
       <c r="C11" s="12" t="s">
@@ -3187,21 +3202,21 @@
         <v>0</v>
       </c>
       <c r="H11" s="23"/>
-      <c r="I11" s="53" t="s">
+      <c r="I11" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="J11" s="53">
+      <c r="J11" s="54">
         <v>1.79</v>
       </c>
-      <c r="K11" s="53">
+      <c r="K11" s="54">
         <v>1.78</v>
       </c>
-      <c r="L11" s="53">
+      <c r="L11" s="54">
         <v>2.01</v>
       </c>
     </row>
     <row r="12" spans="2:12">
-      <c r="B12" s="48"/>
+      <c r="B12" s="49"/>
       <c r="C12" s="12" t="s">
         <v>26</v>
       </c>
@@ -3231,7 +3246,7 @@
       </c>
     </row>
     <row r="13" spans="2:12">
-      <c r="B13" s="48"/>
+      <c r="B13" s="49"/>
       <c r="C13" s="12" t="s">
         <v>69</v>
       </c>
@@ -3259,7 +3274,7 @@
       </c>
     </row>
     <row r="14" spans="2:12">
-      <c r="B14" s="48"/>
+      <c r="B14" s="49"/>
       <c r="C14" s="12" t="s">
         <v>71</v>
       </c>
@@ -3287,7 +3302,7 @@
       </c>
     </row>
     <row r="15" spans="2:12">
-      <c r="B15" s="48"/>
+      <c r="B15" s="49"/>
       <c r="C15" s="12" t="s">
         <v>73</v>
       </c>
@@ -3315,7 +3330,7 @@
       </c>
     </row>
     <row r="16" spans="2:12">
-      <c r="B16" s="48"/>
+      <c r="B16" s="49"/>
       <c r="C16" s="12" t="s">
         <v>75</v>
       </c>
@@ -3343,7 +3358,7 @@
       </c>
     </row>
     <row r="17" spans="2:12">
-      <c r="B17" s="48"/>
+      <c r="B17" s="49"/>
       <c r="C17" s="12" t="s">
         <v>77</v>
       </c>
@@ -3371,7 +3386,7 @@
       </c>
     </row>
     <row r="18" spans="2:12">
-      <c r="B18" s="48"/>
+      <c r="B18" s="49"/>
       <c r="C18" s="12" t="s">
         <v>78</v>
       </c>
@@ -3399,7 +3414,7 @@
       </c>
     </row>
     <row r="19" spans="2:12">
-      <c r="B19" s="48"/>
+      <c r="B19" s="49"/>
       <c r="C19" s="12" t="s">
         <v>79</v>
       </c>
@@ -3427,7 +3442,7 @@
       </c>
     </row>
     <row r="20" spans="2:12">
-      <c r="B20" s="49"/>
+      <c r="B20" s="50"/>
       <c r="C20" s="12" t="s">
         <v>43</v>
       </c>
@@ -3440,7 +3455,7 @@
       <c r="F20" s="12">
         <v>1.17</v>
       </c>
-      <c r="H20" s="50"/>
+      <c r="H20" s="51"/>
       <c r="I20" s="13" t="s">
         <v>81</v>
       </c>
@@ -3455,7 +3470,7 @@
       </c>
     </row>
     <row r="21" spans="2:12">
-      <c r="B21" s="50"/>
+      <c r="B21" s="51"/>
       <c r="C21" s="13" t="s">
         <v>82</v>
       </c>
@@ -3471,18 +3486,18 @@
       <c r="H21" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="I21" s="51" t="s">
+      <c r="I21" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="J21" s="54">
+      <c r="J21" s="55">
         <f t="shared" ref="J21:L21" si="0">SUM(J4:J11)/J20</f>
         <v>0.429960011086036</v>
       </c>
-      <c r="K21" s="54">
+      <c r="K21" s="55">
         <f t="shared" si="0"/>
         <v>0.450822851443453</v>
       </c>
-      <c r="L21" s="54">
+      <c r="L21" s="55">
         <f t="shared" si="0"/>
         <v>0.45503035649521</v>
       </c>
@@ -3491,52 +3506,52 @@
       <c r="B22" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="C22" s="51" t="s">
+      <c r="C22" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="52">
+      <c r="D22" s="53">
         <f>SUM(D4:D10)/D21</f>
         <v>0.726887373306811</v>
       </c>
-      <c r="E22" s="52">
+      <c r="E22" s="53">
         <f>SUM(E4:E10)/E21</f>
         <v>0.768970380818054</v>
       </c>
-      <c r="F22" s="52">
+      <c r="F22" s="53">
         <f>SUM(F4:F10)/F21</f>
         <v>0.758621343933515</v>
       </c>
       <c r="H22" s="23"/>
-      <c r="I22" s="51" t="s">
+      <c r="I22" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="J22" s="54">
+      <c r="J22" s="55">
         <f t="shared" ref="J22:L22" si="1">SUM(J12:J19)/J20</f>
         <v>0.43235538662549</v>
       </c>
-      <c r="K22" s="54">
+      <c r="K22" s="55">
         <f t="shared" si="1"/>
         <v>0.429988363716961</v>
       </c>
-      <c r="L22" s="54">
+      <c r="L22" s="55">
         <f t="shared" si="1"/>
         <v>0.49928313101359</v>
       </c>
     </row>
     <row r="23" spans="2:12">
       <c r="B23" s="23"/>
-      <c r="C23" s="51" t="s">
+      <c r="C23" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="D23" s="52">
+      <c r="D23" s="53">
         <f>SUM(D11:D20)/D21</f>
         <v>0.120147749518487</v>
       </c>
-      <c r="E23" s="52">
+      <c r="E23" s="53">
         <f>SUM(E11:E20)/E21</f>
         <v>0.0941579498879947</v>
       </c>
-      <c r="F23" s="52">
+      <c r="F23" s="53">
         <f>SUM(F11:F20)/F21</f>
         <v>0.0588897464115287</v>
       </c>
@@ -3544,15 +3559,15 @@
       <c r="I23" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="J23" s="55">
+      <c r="J23" s="56">
         <f t="shared" ref="J23:L23" si="2">SUM(J4:J11)/D21</f>
         <v>0.17144232894446</v>
       </c>
-      <c r="K23" s="55">
+      <c r="K23" s="56">
         <f t="shared" si="2"/>
         <v>0.202505600265494</v>
       </c>
-      <c r="L23" s="55">
+      <c r="L23" s="56">
         <f t="shared" si="2"/>
         <v>0.202345554849298</v>
       </c>
@@ -3562,15 +3577,15 @@
       <c r="I24" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="J24" s="55">
+      <c r="J24" s="56">
         <f t="shared" ref="J24:L24" si="3">SUM(J12:J19)/D21</f>
         <v>0.172397461400019</v>
       </c>
-      <c r="K24" s="55">
+      <c r="K24" s="56">
         <f t="shared" si="3"/>
         <v>0.193146934373185</v>
       </c>
-      <c r="L24" s="55">
+      <c r="L24" s="56">
         <f t="shared" si="3"/>
         <v>0.222024136916903</v>
       </c>
@@ -3596,8 +3611,8 @@
   <sheetPr/>
   <dimension ref="B2:L33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16:L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72131147540984" defaultRowHeight="14.4"/>
@@ -3978,7 +3993,7 @@
       <c r="J15" s="27"/>
       <c r="K15" s="27"/>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:12">
       <c r="B16" s="22" t="s">
         <v>117</v>
       </c>
@@ -4002,11 +4017,17 @@
         <v>105.803333333333</v>
       </c>
       <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-    </row>
-    <row r="17" spans="2:11">
+      <c r="K16" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="L16" s="44">
+        <f>C18+C10+C6</f>
+        <v>207.95</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12">
       <c r="B17" s="22" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C17" s="22">
         <v>3.32</v>
@@ -4019,17 +4040,23 @@
       </c>
       <c r="G17" s="30"/>
       <c r="H17" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="I17" s="44">
+        <v>122</v>
+      </c>
+      <c r="I17" s="45">
         <v>0.08</v>
       </c>
       <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-    </row>
-    <row r="18" spans="2:11">
+      <c r="K17" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="L17" s="44">
+        <f>(L16+C7+C8+C9)/L16</f>
+        <v>1.40633456119259</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12">
       <c r="B18" s="22" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C18" s="22">
         <v>166.32</v>
@@ -4042,17 +4069,23 @@
       </c>
       <c r="G18" s="30"/>
       <c r="H18" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="I18" s="44">
+        <v>125</v>
+      </c>
+      <c r="I18" s="45">
         <v>0.03</v>
       </c>
       <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-    </row>
-    <row r="19" spans="2:11">
+      <c r="K18" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="L18" s="44">
+        <f>L16/(L16-C10)</f>
+        <v>1.02706573813404</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12">
       <c r="B19" s="31" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C19" s="31">
         <f>C4-C5</f>
@@ -4068,17 +4101,23 @@
       </c>
       <c r="G19" s="30"/>
       <c r="H19" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="I19" s="44">
+        <v>128</v>
+      </c>
+      <c r="I19" s="45">
         <v>0.1</v>
       </c>
       <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
+      <c r="K19" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="L19" s="44">
+        <f>L17*L18</f>
+        <v>1.44439804415469</v>
+      </c>
     </row>
     <row r="20" spans="2:11">
       <c r="B20" s="31" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C20" s="32">
         <f>C19/C4</f>
@@ -4094,9 +4133,9 @@
       </c>
       <c r="G20" s="30"/>
       <c r="H20" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="I20" s="45">
+        <v>131</v>
+      </c>
+      <c r="I20" s="46">
         <v>100</v>
       </c>
       <c r="J20" s="27"/>
@@ -4104,7 +4143,7 @@
     </row>
     <row r="21" spans="2:11">
       <c r="B21" s="33" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C21" s="33">
         <f>C4-C5-C6-C7-C8-C9-C10</f>
@@ -4120,7 +4159,7 @@
       </c>
       <c r="G21" s="30"/>
       <c r="H21" s="29" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="I21" s="29">
         <f>I16*(1+I19)/POWER(1+I17,1)</f>
@@ -4131,7 +4170,7 @@
     </row>
     <row r="22" spans="2:11">
       <c r="B22" s="33" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C22" s="34">
         <f>C21/C4</f>
@@ -4147,7 +4186,7 @@
       </c>
       <c r="G22" s="30"/>
       <c r="H22" s="29" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="I22" s="29">
         <f>I16*POWER(1+I19,2)/POWER(1+I17,2)</f>
@@ -4158,7 +4197,7 @@
     </row>
     <row r="23" spans="2:11">
       <c r="B23" s="35" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C23" s="36">
         <f>C21/I4</f>
@@ -4174,7 +4213,7 @@
       </c>
       <c r="G23" s="30"/>
       <c r="H23" s="29" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="I23" s="29">
         <f>I16*POWER(1+I19,3)/POWER(1+I17,3)</f>
@@ -4185,7 +4224,7 @@
     </row>
     <row r="24" spans="2:11">
       <c r="B24" s="24" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C24" s="37">
         <f>C7/C4</f>
@@ -4201,7 +4240,7 @@
       </c>
       <c r="G24" s="30"/>
       <c r="H24" s="29" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="I24" s="29">
         <f>(SUM(I21:I23)*(1+I18))/I17-I18</f>
@@ -4212,7 +4251,7 @@
     </row>
     <row r="25" spans="2:11">
       <c r="B25" s="24" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C25" s="37">
         <f>C8/C4</f>
@@ -4228,7 +4267,7 @@
       </c>
       <c r="G25" s="30"/>
       <c r="H25" s="29" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="I25" s="29">
         <f>SUM(I21:I24)</f>
@@ -4239,7 +4278,7 @@
     </row>
     <row r="26" spans="2:9">
       <c r="B26" s="24" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C26" s="37">
         <f>C16/C4</f>
@@ -4255,7 +4294,7 @@
       </c>
       <c r="G26" s="38"/>
       <c r="H26" s="16" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="I26" s="16">
         <f>I25/I20</f>
@@ -4264,7 +4303,7 @@
     </row>
     <row r="27" spans="2:5">
       <c r="B27" s="24" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C27" s="37">
         <f>C18/C4</f>
@@ -4281,12 +4320,12 @@
     </row>
     <row r="28" spans="7:10">
       <c r="G28" s="39" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="I28" s="46">
+        <v>146</v>
+      </c>
+      <c r="I28" s="47">
         <v>0.1</v>
       </c>
       <c r="J28" s="22"/>
@@ -4294,9 +4333,9 @@
     <row r="29" spans="7:10">
       <c r="G29" s="40"/>
       <c r="H29" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="I29" s="46">
+        <v>147</v>
+      </c>
+      <c r="I29" s="47">
         <v>0.04</v>
       </c>
       <c r="J29" s="13">
@@ -4307,9 +4346,9 @@
     <row r="30" spans="7:10">
       <c r="G30" s="40"/>
       <c r="H30" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="I30" s="46">
+        <v>148</v>
+      </c>
+      <c r="I30" s="47">
         <v>0.02</v>
       </c>
       <c r="J30" s="13">
@@ -4320,7 +4359,7 @@
     <row r="31" spans="7:10">
       <c r="G31" s="40"/>
       <c r="H31" s="13" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="I31" s="13">
         <f>(C18*POWER(1+I28,3))*J29</f>
@@ -4334,7 +4373,7 @@
     <row r="32" spans="7:10">
       <c r="G32" s="40"/>
       <c r="H32" s="13" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="I32" s="13">
         <f>I31*0.7</f>
@@ -4348,7 +4387,7 @@
     <row r="33" spans="7:10">
       <c r="G33" s="41"/>
       <c r="H33" s="13" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="I33" s="13">
         <f>(C18*POWER(1+I28,3))*J30</f>
@@ -4379,7 +4418,7 @@
   <sheetPr/>
   <dimension ref="B3:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
@@ -4411,15 +4450,15 @@
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="9" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="2:10">
       <c r="B4" s="10" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>0</v>
@@ -4566,13 +4605,13 @@
     <row r="10" spans="2:10">
       <c r="B10" s="10"/>
       <c r="C10" s="12" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="H10" s="12" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
@@ -4580,7 +4619,7 @@
     <row r="11" spans="2:10">
       <c r="B11" s="10"/>
       <c r="C11" s="12" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D11" s="12">
         <v>196.74</v>
@@ -4592,7 +4631,7 @@
         <v>182.33</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="I11" s="12">
         <f>D11</f>
@@ -4603,7 +4642,7 @@
     <row r="12" spans="2:10">
       <c r="B12" s="10"/>
       <c r="C12" s="12" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D12" s="12">
         <f>'利润&amp;现金流结构分析'!C21</f>
@@ -4618,7 +4657,7 @@
         <v>173.829175</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="I12" s="12">
         <f>D12</f>
@@ -4655,7 +4694,7 @@
     <row r="14" spans="2:10">
       <c r="B14" s="10"/>
       <c r="C14" s="13" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D14" s="13">
         <v>1.2901867163</v>
@@ -4667,7 +4706,7 @@
         <v>0.597041</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="I14" s="13">
         <v>1.2901867163</v>
@@ -4703,7 +4742,7 @@
     <row r="16" spans="2:10">
       <c r="B16" s="10"/>
       <c r="C16" s="13" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D16" s="13">
         <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!D21</f>
@@ -4718,7 +4757,7 @@
         <v>1054.07</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="I16" s="13">
         <f>D16</f>
@@ -4728,176 +4767,176 @@
     </row>
     <row r="22" ht="16.05" spans="3:4">
       <c r="C22" s="15" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" ht="16.05" spans="2:8">
       <c r="B24" s="17" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="18" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G24" s="15"/>
       <c r="H24" s="18" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" ht="16.05" spans="2:8">
       <c r="B25" s="19"/>
       <c r="C25" s="15" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F25" s="19"/>
       <c r="G25" s="15" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="H25" s="18" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" ht="16.05" spans="2:8">
       <c r="B26" s="19"/>
       <c r="C26" s="15" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F26" s="19"/>
       <c r="G26" s="15" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="H26" s="18" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" ht="16.05" spans="2:8">
       <c r="B27" s="19"/>
       <c r="C27" s="15" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F27" s="19"/>
       <c r="G27" s="15" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="H27" s="18" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="28" ht="16.05" spans="2:8">
       <c r="B28" s="19"/>
       <c r="C28" s="15" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F28" s="19"/>
       <c r="G28" s="15" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="H28" s="18" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="29" ht="16.05" spans="2:8">
       <c r="B29" s="19"/>
       <c r="C29" s="15" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F29" s="19"/>
       <c r="G29" s="15" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="H29" s="18" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="30" ht="16.05" spans="2:8">
       <c r="B30" s="19"/>
       <c r="C30" s="15" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="F30" s="20"/>
       <c r="G30" s="15" t="s">
         <v>41</v>
       </c>
       <c r="H30" s="18" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="31" ht="16.05" spans="2:4">
       <c r="B31" s="19"/>
       <c r="C31" s="15" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="32" ht="16.05" spans="2:4">
       <c r="B32" s="19"/>
       <c r="C32" s="15" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="33" ht="16.05" spans="2:4">
       <c r="B33" s="20"/>
       <c r="C33" s="15" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="36" ht="18.25" spans="2:8">
       <c r="B36" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="1" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="37" ht="18.25" spans="2:8">
       <c r="B37" s="1"/>
       <c r="C37" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>62</v>
@@ -4905,10 +4944,10 @@
       <c r="E37" s="4"/>
       <c r="F37" s="1"/>
       <c r="G37" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="38" ht="18.25" spans="2:8">
@@ -4920,34 +4959,34 @@
       <c r="E38" s="4"/>
       <c r="F38" s="1"/>
       <c r="G38" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="39" ht="18.25" spans="2:8">
       <c r="B39" s="1"/>
       <c r="C39" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="1"/>
       <c r="G39" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="40" ht="18.25" spans="2:8">
       <c r="B40" s="1"/>
       <c r="C40" s="2"/>
       <c r="D40" s="5" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
@@ -4956,10 +4995,10 @@
     </row>
     <row r="41" ht="18.25" spans="7:8">
       <c r="G41" s="6" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -4998,29 +5037,29 @@
   <sheetData>
     <row r="2" ht="18.25" spans="2:8">
       <c r="B2" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="1" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" ht="18.25" spans="2:8">
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>62</v>
@@ -5028,10 +5067,10 @@
       <c r="E3" s="4"/>
       <c r="F3" s="1"/>
       <c r="G3" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" ht="18.25" spans="2:8">
@@ -5043,34 +5082,34 @@
       <c r="E4" s="4"/>
       <c r="F4" s="1"/>
       <c r="G4" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" ht="18.25" spans="2:8">
       <c r="B5" s="1"/>
       <c r="C5" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="1"/>
       <c r="G5" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" ht="18.25" spans="2:8">
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
       <c r="D6" s="5" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -5079,10 +5118,10 @@
     </row>
     <row r="7" ht="18.25" spans="7:8">
       <c r="G7" s="6" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>

--- a/funds/stocks/陕西煤业&财务报表同型分析.xlsx
+++ b/funds/stocks/陕西煤业&财务报表同型分析.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="212">
   <si>
     <t>项目</t>
   </si>
@@ -294,6 +294,12 @@
     <t>金融性负债占总资产比率</t>
   </si>
   <si>
+    <t>现金流增加量</t>
+  </si>
+  <si>
+    <t>分项</t>
+  </si>
+  <si>
     <t>营业收入</t>
   </si>
   <si>
@@ -303,13 +309,16 @@
     <t>经营活动产生的现金流量净额</t>
   </si>
   <si>
+    <t>资本性支出</t>
+  </si>
+  <si>
     <t>营业成本</t>
   </si>
   <si>
     <t>投资现金流</t>
   </si>
   <si>
-    <t>资本性支出</t>
+    <t>核心利润</t>
   </si>
   <si>
     <t>营业税金及附加</t>
@@ -318,6 +327,9 @@
     <t>投资支付的现金</t>
   </si>
   <si>
+    <t>持续经营净利润</t>
+  </si>
+  <si>
     <t>销售费用</t>
   </si>
   <si>
@@ -393,9 +405,6 @@
     <t>经营杠杆</t>
   </si>
   <si>
-    <t>持续经营净利润</t>
-  </si>
-  <si>
     <t>永续年金增长率(g)</t>
   </si>
   <si>
@@ -415,9 +424,6 @@
   </si>
   <si>
     <t>总股本</t>
-  </si>
-  <si>
-    <t>核心利润</t>
   </si>
   <si>
     <t>第一年价值</t>
@@ -656,11 +662,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.0%"/>
     <numFmt numFmtId="178" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="179" formatCode="\+0;\-0;0;@"/>
@@ -731,8 +737,16 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -740,14 +754,28 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -760,8 +788,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -775,9 +804,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -792,13 +821,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -806,33 +828,18 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -844,16 +851,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -867,15 +874,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -914,7 +920,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -926,7 +950,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -938,7 +986,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -950,7 +1034,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -962,7 +1052,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -980,115 +1100,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1160,11 +1172,61 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1193,45 +1255,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1246,17 +1269,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1265,10 +1277,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1277,137 +1289,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1534,6 +1546,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -1568,6 +1586,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="6" borderId="1" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -1987,15 +2008,15 @@
       <c r="I4" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="54">
+      <c r="J4" s="57">
         <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!J18</f>
         <v>1.7</v>
       </c>
-      <c r="K4" s="54">
+      <c r="K4" s="57">
         <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!K18</f>
         <v>0</v>
       </c>
-      <c r="L4" s="54">
+      <c r="L4" s="57">
         <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!L18</f>
         <v>33</v>
       </c>
@@ -2147,7 +2168,7 @@
       <c r="E9" s="22">
         <v>315.05</v>
       </c>
-      <c r="F9" s="43">
+      <c r="F9" s="45">
         <v>268.1</v>
       </c>
       <c r="H9" s="23"/>
@@ -2172,15 +2193,15 @@
       <c r="C10" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="57">
+      <c r="D10" s="60">
         <f>D4/D9</f>
         <v>0.55276916005975</v>
       </c>
-      <c r="E10" s="57">
+      <c r="E10" s="60">
         <f>E4/E9</f>
         <v>0.416314870655451</v>
       </c>
-      <c r="F10" s="57">
+      <c r="F10" s="60">
         <f>F4/F9</f>
         <v>0.332226781051846</v>
       </c>
@@ -2203,15 +2224,15 @@
       <c r="C11" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="57">
+      <c r="D11" s="60">
         <f>D5/D9</f>
         <v>0.0432034930483741</v>
       </c>
-      <c r="E11" s="57">
+      <c r="E11" s="60">
         <f>E5/E9</f>
         <v>0.301507697190922</v>
       </c>
-      <c r="F11" s="57">
+      <c r="F11" s="60">
         <f>F5/F9</f>
         <v>0.363894069377098</v>
       </c>
@@ -2225,7 +2246,7 @@
       <c r="K11" s="22">
         <v>286.79</v>
       </c>
-      <c r="L11" s="43">
+      <c r="L11" s="45">
         <v>287.62</v>
       </c>
     </row>
@@ -2234,15 +2255,15 @@
       <c r="C12" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="57">
+      <c r="D12" s="60">
         <f>D6/D9</f>
         <v>0.168562564632885</v>
       </c>
-      <c r="E12" s="57">
+      <c r="E12" s="60">
         <f>E6/E9</f>
         <v>0.131756863989843</v>
       </c>
-      <c r="F12" s="57">
+      <c r="F12" s="60">
         <f>F6/F9</f>
         <v>0.172286460276016</v>
       </c>
@@ -2250,15 +2271,15 @@
       <c r="I12" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="57">
+      <c r="J12" s="60">
         <f t="shared" ref="J12:L12" si="0">J4/J11</f>
         <v>0.00609187988246255</v>
       </c>
-      <c r="K12" s="57">
+      <c r="K12" s="60">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L12" s="57">
+      <c r="L12" s="60">
         <f t="shared" si="0"/>
         <v>0.114734719421459</v>
       </c>
@@ -2268,15 +2289,15 @@
       <c r="C13" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="57">
+      <c r="D13" s="60">
         <f>D7/D9</f>
         <v>0.0615879581753418</v>
       </c>
-      <c r="E13" s="57">
+      <c r="E13" s="60">
         <f>E7/E9</f>
         <v>0.0571020472940803</v>
       </c>
-      <c r="F13" s="57">
+      <c r="F13" s="60">
         <f>F7/F9</f>
         <v>0.0469227900037299</v>
       </c>
@@ -2284,15 +2305,15 @@
       <c r="I13" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="J13" s="57">
+      <c r="J13" s="60">
         <f t="shared" ref="J13:L13" si="1">J5/J11</f>
         <v>0.17093098258439</v>
       </c>
-      <c r="K13" s="57">
+      <c r="K13" s="60">
         <f t="shared" si="1"/>
         <v>0.186373304508525</v>
       </c>
-      <c r="L13" s="57">
+      <c r="L13" s="60">
         <f t="shared" si="1"/>
         <v>0.15989847715736</v>
       </c>
@@ -2302,15 +2323,15 @@
       <c r="C14" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="57">
+      <c r="D14" s="60">
         <f>D8/D9</f>
         <v>0.0377456049638056</v>
       </c>
-      <c r="E14" s="57">
+      <c r="E14" s="60">
         <f>E8/E9</f>
         <v>0.0340898270115855</v>
       </c>
-      <c r="F14" s="57">
+      <c r="F14" s="60">
         <f>F8/F9</f>
         <v>0.0313688922044013</v>
       </c>
@@ -2318,15 +2339,15 @@
       <c r="I14" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="J14" s="57">
+      <c r="J14" s="60">
         <f t="shared" ref="J14:L14" si="2">J6/J11</f>
         <v>0.344513724647029</v>
       </c>
-      <c r="K14" s="57">
+      <c r="K14" s="60">
         <f t="shared" si="2"/>
         <v>0.352662226716413</v>
       </c>
-      <c r="L14" s="57">
+      <c r="L14" s="60">
         <f t="shared" si="2"/>
         <v>0.306411237048884</v>
       </c>
@@ -2338,15 +2359,15 @@
       <c r="C15" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="58">
+      <c r="D15" s="61">
         <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!D12</f>
         <v>121.04</v>
       </c>
-      <c r="E15" s="58">
+      <c r="E15" s="61">
         <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!E12</f>
         <v>103.5</v>
       </c>
-      <c r="F15" s="58">
+      <c r="F15" s="61">
         <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!F12</f>
         <v>53.04</v>
       </c>
@@ -2354,15 +2375,15 @@
       <c r="I15" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="J15" s="57">
+      <c r="J15" s="60">
         <f t="shared" ref="J15:L15" si="3">J7/J11</f>
         <v>0</v>
       </c>
-      <c r="K15" s="57">
+      <c r="K15" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L15" s="57">
+      <c r="L15" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2385,15 +2406,15 @@
       <c r="I16" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="J16" s="57">
+      <c r="J16" s="60">
         <f t="shared" ref="J16:L16" si="4">J8/J11</f>
         <v>0.0414964523758332</v>
       </c>
-      <c r="K16" s="57">
+      <c r="K16" s="60">
         <f t="shared" si="4"/>
         <v>0.0430279995815754</v>
       </c>
-      <c r="L16" s="57">
+      <c r="L16" s="60">
         <f t="shared" si="4"/>
         <v>0.0434601209929768</v>
       </c>
@@ -2419,15 +2440,15 @@
       <c r="I17" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="J17" s="57">
+      <c r="J17" s="60">
         <f t="shared" ref="J17:L17" si="5">J9/J11</f>
         <v>0.11244893571275</v>
       </c>
-      <c r="K17" s="57">
+      <c r="K17" s="60">
         <f t="shared" si="5"/>
         <v>0.14693678301196</v>
       </c>
-      <c r="L17" s="57">
+      <c r="L17" s="60">
         <f t="shared" si="5"/>
         <v>0.122418468813017</v>
       </c>
@@ -2450,15 +2471,15 @@
       <c r="I18" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="J18" s="57">
+      <c r="J18" s="60">
         <f t="shared" ref="J18:L18" si="6">J10/J11</f>
         <v>0</v>
       </c>
-      <c r="K18" s="57">
+      <c r="K18" s="60">
         <f t="shared" si="6"/>
         <v>0.0449457791415321</v>
       </c>
-      <c r="L18" s="57">
+      <c r="L18" s="60">
         <f t="shared" si="6"/>
         <v>0.034455183923232</v>
       </c>
@@ -2483,15 +2504,15 @@
       <c r="I19" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="J19" s="54">
+      <c r="J19" s="57">
         <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!J17</f>
         <v>90.71</v>
       </c>
-      <c r="K19" s="54">
+      <c r="K19" s="57">
         <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!K17</f>
         <v>119.41</v>
       </c>
-      <c r="L19" s="54">
+      <c r="L19" s="57">
         <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!L17</f>
         <v>107.22</v>
       </c>
@@ -2517,15 +2538,15 @@
       <c r="I20" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="J20" s="54">
+      <c r="J20" s="57">
         <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!J16</f>
         <v>53.17</v>
       </c>
-      <c r="K20" s="54">
+      <c r="K20" s="57">
         <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!K16</f>
         <v>53.33</v>
       </c>
-      <c r="L20" s="54">
+      <c r="L20" s="57">
         <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!L16</f>
         <v>52.27</v>
       </c>
@@ -2579,15 +2600,15 @@
       <c r="I22" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="J22" s="54">
+      <c r="J22" s="57">
         <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!J11</f>
         <v>1.79</v>
       </c>
-      <c r="K22" s="54">
+      <c r="K22" s="57">
         <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!K11</f>
         <v>1.78</v>
       </c>
-      <c r="L22" s="54">
+      <c r="L22" s="57">
         <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!L11</f>
         <v>2.01</v>
       </c>
@@ -2656,15 +2677,15 @@
       <c r="C25" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D25" s="57">
+      <c r="D25" s="60">
         <f>D15/D24</f>
         <v>0.131748519679554</v>
       </c>
-      <c r="E25" s="57">
+      <c r="E25" s="60">
         <f>E15/E24</f>
         <v>0.11625947767481</v>
       </c>
-      <c r="F25" s="57">
+      <c r="F25" s="60">
         <f>F15/F24</f>
         <v>0.0674826331458816</v>
       </c>
@@ -2672,15 +2693,15 @@
       <c r="I25" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="J25" s="57">
+      <c r="J25" s="60">
         <f t="shared" ref="J25:L25" si="7">J4/J11</f>
         <v>0.00609187988246255</v>
       </c>
-      <c r="K25" s="57">
+      <c r="K25" s="60">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L25" s="57">
+      <c r="L25" s="60">
         <f t="shared" si="7"/>
         <v>0.114734719421459</v>
       </c>
@@ -2690,15 +2711,15 @@
       <c r="C26" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="57">
+      <c r="D26" s="60">
         <f>D16/D24</f>
         <v>0.0115813305468478</v>
       </c>
-      <c r="E26" s="57">
+      <c r="E26" s="60">
         <f>E16/E24</f>
         <v>0</v>
       </c>
-      <c r="F26" s="57">
+      <c r="F26" s="60">
         <f>F16/F24</f>
         <v>0</v>
       </c>
@@ -2706,15 +2727,15 @@
       <c r="I26" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="J26" s="57">
+      <c r="J26" s="60">
         <f t="shared" ref="J26:L26" si="8">J19/J24</f>
         <v>0.401247401247401</v>
       </c>
-      <c r="K26" s="57">
+      <c r="K26" s="60">
         <f t="shared" si="8"/>
         <v>0.46897337208389</v>
       </c>
-      <c r="L26" s="57">
+      <c r="L26" s="60">
         <f t="shared" si="8"/>
         <v>0.593195020746888</v>
       </c>
@@ -2724,15 +2745,15 @@
       <c r="C27" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="57">
+      <c r="D27" s="60">
         <f>D17/D24</f>
         <v>0.437663270637409</v>
       </c>
-      <c r="E27" s="57">
+      <c r="E27" s="60">
         <f>E17/E24</f>
         <v>0.455467565290649</v>
       </c>
-      <c r="F27" s="57">
+      <c r="F27" s="60">
         <f>F17/F24</f>
         <v>0.404043359881931</v>
       </c>
@@ -2740,15 +2761,15 @@
       <c r="I27" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="J27" s="57">
+      <c r="J27" s="60">
         <f t="shared" ref="J27:L27" si="9">J20/J24</f>
         <v>0.235192639447959</v>
       </c>
-      <c r="K27" s="57">
+      <c r="K27" s="60">
         <f t="shared" si="9"/>
         <v>0.20944937554002</v>
       </c>
-      <c r="L27" s="57">
+      <c r="L27" s="60">
         <f t="shared" si="9"/>
         <v>0.289183955739972</v>
       </c>
@@ -2758,15 +2779,15 @@
       <c r="C28" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="57">
+      <c r="D28" s="60">
         <f>D18/D24</f>
         <v>0</v>
       </c>
-      <c r="E28" s="57">
+      <c r="E28" s="60">
         <f>E18/E24</f>
         <v>0.135669755686605</v>
       </c>
-      <c r="F28" s="57">
+      <c r="F28" s="60">
         <f>F18/F24</f>
         <v>0.185679024911575</v>
       </c>
@@ -2774,15 +2795,15 @@
       <c r="I28" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="J28" s="57">
+      <c r="J28" s="60">
         <f t="shared" ref="J28:L28" si="10">J21/J24</f>
         <v>0</v>
       </c>
-      <c r="K28" s="57">
+      <c r="K28" s="60">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L28" s="57">
+      <c r="L28" s="60">
         <f t="shared" si="10"/>
         <v>9.06168741355463e-5</v>
       </c>
@@ -2792,15 +2813,15 @@
       <c r="C29" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="D29" s="57">
+      <c r="D29" s="60">
         <f>D19/D24</f>
         <v>0.00247082897944967</v>
       </c>
-      <c r="E29" s="57">
+      <c r="E29" s="60">
         <f>E19/E24</f>
         <v>0.00274080314518394</v>
       </c>
-      <c r="F29" s="57">
+      <c r="F29" s="60">
         <f>F19/F24</f>
         <v>0.00583984325300898</v>
       </c>
@@ -2808,15 +2829,15 @@
       <c r="I29" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="J29" s="57">
+      <c r="J29" s="60">
         <f t="shared" ref="J29:L29" si="11">J22/J24</f>
         <v>0.00791790153492281</v>
       </c>
-      <c r="K29" s="57">
+      <c r="K29" s="60">
         <f t="shared" si="11"/>
         <v>0.00699080983426282</v>
       </c>
-      <c r="L29" s="57">
+      <c r="L29" s="60">
         <f t="shared" si="11"/>
         <v>0.0111203319502075</v>
       </c>
@@ -2826,15 +2847,15 @@
       <c r="C30" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="D30" s="57">
+      <c r="D30" s="60">
         <f>D20/D24</f>
         <v>0.237319313827935</v>
       </c>
-      <c r="E30" s="57">
+      <c r="E30" s="60">
         <f>E20/E24</f>
         <v>0.252704296545914</v>
       </c>
-      <c r="F30" s="57">
+      <c r="F30" s="60">
         <f>F20/F24</f>
         <v>0.290414514364233</v>
       </c>
@@ -2842,15 +2863,15 @@
       <c r="I30" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="J30" s="57">
+      <c r="J30" s="60">
         <f t="shared" ref="J30:L30" si="12">J23/J24</f>
         <v>4.46852744725085e-5</v>
       </c>
-      <c r="K30" s="57">
+      <c r="K30" s="60">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="L30" s="57">
+      <c r="L30" s="60">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -2860,15 +2881,15 @@
       <c r="C31" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="D31" s="57">
+      <c r="D31" s="60">
         <f>D21/D24</f>
         <v>0.000139822796934866</v>
       </c>
-      <c r="E31" s="57">
+      <c r="E31" s="60">
         <f>E21/E24</f>
         <v>0</v>
       </c>
-      <c r="F31" s="57">
+      <c r="F31" s="60">
         <f>F21/F24</f>
         <v>0</v>
       </c>
@@ -2878,15 +2899,15 @@
       <c r="C32" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="D32" s="57">
+      <c r="D32" s="60">
         <f>D22/D24</f>
         <v>0</v>
       </c>
-      <c r="E32" s="57">
+      <c r="E32" s="60">
         <f>E22/E24</f>
         <v>9.80466161190677e-5</v>
       </c>
-      <c r="F32" s="57">
+      <c r="F32" s="60">
         <f>F22/F24</f>
         <v>0.000111053716379552</v>
       </c>
@@ -2896,15 +2917,15 @@
       <c r="C33" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="D33" s="57">
+      <c r="D33" s="60">
         <f t="shared" ref="D33:F33" si="13">D23/D24</f>
         <v>0.00167624521072797</v>
       </c>
-      <c r="E33" s="57">
+      <c r="E33" s="60">
         <f t="shared" si="13"/>
         <v>0.000697109800617804</v>
       </c>
-      <c r="F33" s="57">
+      <c r="F33" s="60">
         <f t="shared" si="13"/>
         <v>0.00148858749586503</v>
       </c>
@@ -2926,10 +2947,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:L24"/>
+  <dimension ref="B2:L31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72131147540984" defaultRowHeight="14.4"/>
@@ -3153,7 +3174,7 @@
       <c r="K9" s="22">
         <v>0</v>
       </c>
-      <c r="L9" s="43">
+      <c r="L9" s="45">
         <v>0</v>
       </c>
     </row>
@@ -3186,7 +3207,7 @@
       </c>
     </row>
     <row r="11" spans="2:12">
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="50" t="s">
         <v>64</v>
       </c>
       <c r="C11" s="12" t="s">
@@ -3202,21 +3223,21 @@
         <v>0</v>
       </c>
       <c r="H11" s="23"/>
-      <c r="I11" s="54" t="s">
+      <c r="I11" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="J11" s="54">
+      <c r="J11" s="57">
         <v>1.79</v>
       </c>
-      <c r="K11" s="54">
+      <c r="K11" s="57">
         <v>1.78</v>
       </c>
-      <c r="L11" s="54">
+      <c r="L11" s="57">
         <v>2.01</v>
       </c>
     </row>
     <row r="12" spans="2:12">
-      <c r="B12" s="49"/>
+      <c r="B12" s="51"/>
       <c r="C12" s="12" t="s">
         <v>26</v>
       </c>
@@ -3246,7 +3267,7 @@
       </c>
     </row>
     <row r="13" spans="2:12">
-      <c r="B13" s="49"/>
+      <c r="B13" s="51"/>
       <c r="C13" s="12" t="s">
         <v>69</v>
       </c>
@@ -3274,7 +3295,7 @@
       </c>
     </row>
     <row r="14" spans="2:12">
-      <c r="B14" s="49"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="12" t="s">
         <v>71</v>
       </c>
@@ -3302,7 +3323,7 @@
       </c>
     </row>
     <row r="15" spans="2:12">
-      <c r="B15" s="49"/>
+      <c r="B15" s="51"/>
       <c r="C15" s="12" t="s">
         <v>73</v>
       </c>
@@ -3330,7 +3351,7 @@
       </c>
     </row>
     <row r="16" spans="2:12">
-      <c r="B16" s="49"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="12" t="s">
         <v>75</v>
       </c>
@@ -3358,7 +3379,7 @@
       </c>
     </row>
     <row r="17" spans="2:12">
-      <c r="B17" s="49"/>
+      <c r="B17" s="51"/>
       <c r="C17" s="12" t="s">
         <v>77</v>
       </c>
@@ -3386,7 +3407,7 @@
       </c>
     </row>
     <row r="18" spans="2:12">
-      <c r="B18" s="49"/>
+      <c r="B18" s="51"/>
       <c r="C18" s="12" t="s">
         <v>78</v>
       </c>
@@ -3414,7 +3435,7 @@
       </c>
     </row>
     <row r="19" spans="2:12">
-      <c r="B19" s="49"/>
+      <c r="B19" s="51"/>
       <c r="C19" s="12" t="s">
         <v>79</v>
       </c>
@@ -3442,7 +3463,7 @@
       </c>
     </row>
     <row r="20" spans="2:12">
-      <c r="B20" s="50"/>
+      <c r="B20" s="52"/>
       <c r="C20" s="12" t="s">
         <v>43</v>
       </c>
@@ -3455,7 +3476,7 @@
       <c r="F20" s="12">
         <v>1.17</v>
       </c>
-      <c r="H20" s="51"/>
+      <c r="H20" s="53"/>
       <c r="I20" s="13" t="s">
         <v>81</v>
       </c>
@@ -3470,7 +3491,7 @@
       </c>
     </row>
     <row r="21" spans="2:12">
-      <c r="B21" s="51"/>
+      <c r="B21" s="53"/>
       <c r="C21" s="13" t="s">
         <v>82</v>
       </c>
@@ -3486,18 +3507,18 @@
       <c r="H21" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="I21" s="52" t="s">
+      <c r="I21" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="J21" s="55">
+      <c r="J21" s="58">
         <f t="shared" ref="J21:L21" si="0">SUM(J4:J11)/J20</f>
         <v>0.429960011086036</v>
       </c>
-      <c r="K21" s="55">
+      <c r="K21" s="58">
         <f t="shared" si="0"/>
         <v>0.450822851443453</v>
       </c>
-      <c r="L21" s="55">
+      <c r="L21" s="58">
         <f t="shared" si="0"/>
         <v>0.45503035649521</v>
       </c>
@@ -3506,52 +3527,52 @@
       <c r="B22" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="C22" s="52" t="s">
+      <c r="C22" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="53">
+      <c r="D22" s="55">
         <f>SUM(D4:D10)/D21</f>
         <v>0.726887373306811</v>
       </c>
-      <c r="E22" s="53">
+      <c r="E22" s="55">
         <f>SUM(E4:E10)/E21</f>
         <v>0.768970380818054</v>
       </c>
-      <c r="F22" s="53">
+      <c r="F22" s="55">
         <f>SUM(F4:F10)/F21</f>
         <v>0.758621343933515</v>
       </c>
       <c r="H22" s="23"/>
-      <c r="I22" s="52" t="s">
+      <c r="I22" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="J22" s="55">
+      <c r="J22" s="58">
         <f t="shared" ref="J22:L22" si="1">SUM(J12:J19)/J20</f>
         <v>0.43235538662549</v>
       </c>
-      <c r="K22" s="55">
+      <c r="K22" s="58">
         <f t="shared" si="1"/>
         <v>0.429988363716961</v>
       </c>
-      <c r="L22" s="55">
+      <c r="L22" s="58">
         <f t="shared" si="1"/>
         <v>0.49928313101359</v>
       </c>
     </row>
     <row r="23" spans="2:12">
       <c r="B23" s="23"/>
-      <c r="C23" s="52" t="s">
+      <c r="C23" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="D23" s="53">
+      <c r="D23" s="55">
         <f>SUM(D11:D20)/D21</f>
         <v>0.120147749518487</v>
       </c>
-      <c r="E23" s="53">
+      <c r="E23" s="55">
         <f>SUM(E11:E20)/E21</f>
         <v>0.0941579498879947</v>
       </c>
-      <c r="F23" s="53">
+      <c r="F23" s="55">
         <f>SUM(F11:F20)/F21</f>
         <v>0.0588897464115287</v>
       </c>
@@ -3559,15 +3580,15 @@
       <c r="I23" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="J23" s="56">
+      <c r="J23" s="59">
         <f t="shared" ref="J23:L23" si="2">SUM(J4:J11)/D21</f>
         <v>0.17144232894446</v>
       </c>
-      <c r="K23" s="56">
+      <c r="K23" s="59">
         <f t="shared" si="2"/>
         <v>0.202505600265494</v>
       </c>
-      <c r="L23" s="56">
+      <c r="L23" s="59">
         <f t="shared" si="2"/>
         <v>0.202345554849298</v>
       </c>
@@ -3577,17 +3598,54 @@
       <c r="I24" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="J24" s="56">
+      <c r="J24" s="59">
         <f t="shared" ref="J24:L24" si="3">SUM(J12:J19)/D21</f>
         <v>0.172397461400019</v>
       </c>
-      <c r="K24" s="56">
+      <c r="K24" s="59">
         <f t="shared" si="3"/>
         <v>0.193146934373185</v>
       </c>
-      <c r="L24" s="56">
+      <c r="L24" s="59">
         <f t="shared" si="3"/>
         <v>0.222024136916903</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4">
+      <c r="C27">
+        <v>2020</v>
+      </c>
+      <c r="D27">
+        <v>239.31</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" s="56"/>
+      <c r="C30" s="56">
+        <v>2020</v>
+      </c>
+      <c r="D30" s="56">
+        <v>2019</v>
+      </c>
+      <c r="E30" s="56">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" s="56" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" s="56">
+        <f>D27-D4</f>
+        <v>46.88</v>
+      </c>
+      <c r="D31" s="56">
+        <f>D4-E4</f>
+        <v>61.27</v>
+      </c>
+      <c r="E31" s="56">
+        <f>E4-F4</f>
+        <v>42.09</v>
       </c>
     </row>
   </sheetData>
@@ -3609,10 +3667,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:L33"/>
+  <dimension ref="B2:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16:L19"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72131147540984" defaultRowHeight="14.4"/>
@@ -3625,9 +3683,10 @@
     <col min="10" max="10" width="9.45081967213115" customWidth="1"/>
     <col min="11" max="11" width="12.4344262295082" customWidth="1"/>
     <col min="12" max="12" width="8.72131147540984" style="21"/>
+    <col min="13" max="13" width="14.7295081967213" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11">
+    <row r="2" spans="2:16">
       <c r="B2" s="22"/>
       <c r="C2" s="22">
         <v>2019</v>
@@ -3649,8 +3708,20 @@
       <c r="K2" s="22">
         <v>2017</v>
       </c>
-    </row>
-    <row r="3" spans="2:11">
+      <c r="M2" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="N2" s="43">
+        <v>2019</v>
+      </c>
+      <c r="O2" s="43">
+        <v>2018</v>
+      </c>
+      <c r="P2" s="43">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16">
       <c r="B3" s="22" t="s">
         <v>0</v>
       </c>
@@ -3664,10 +3735,25 @@
       <c r="I3" s="23"/>
       <c r="J3" s="23"/>
       <c r="K3" s="23"/>
-    </row>
-    <row r="4" spans="2:12">
+      <c r="M3" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="N3" s="43">
+        <f>C4</f>
+        <v>734.03</v>
+      </c>
+      <c r="O3" s="43">
+        <f>D4</f>
+        <v>572.24</v>
+      </c>
+      <c r="P3" s="43">
+        <f>E4</f>
+        <v>509.27</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16">
       <c r="B4" s="22" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C4" s="22">
         <v>734.03</v>
@@ -3679,10 +3765,10 @@
         <v>509.27</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H4" s="24" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I4" s="24">
         <v>192</v>
@@ -3693,11 +3779,26 @@
       <c r="K4" s="24">
         <v>169.31</v>
       </c>
-      <c r="L4" s="42"/>
-    </row>
-    <row r="5" spans="2:11">
+      <c r="L4" s="44"/>
+      <c r="M4" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="N4" s="43">
+        <f t="shared" ref="N4:P4" si="0">I5</f>
+        <v>48.73</v>
+      </c>
+      <c r="O4" s="43">
+        <f t="shared" si="0"/>
+        <v>44.22</v>
+      </c>
+      <c r="P4" s="43">
+        <f t="shared" si="0"/>
+        <v>50.12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16">
       <c r="B5" s="22" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C5" s="22">
         <v>433.57</v>
@@ -3709,7 +3810,7 @@
         <v>227.12</v>
       </c>
       <c r="G5" s="23" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H5" s="22" t="s">
         <v>96</v>
@@ -3723,10 +3824,25 @@
       <c r="K5" s="22">
         <v>50.12</v>
       </c>
-    </row>
-    <row r="6" spans="2:11">
+      <c r="M5" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="N5" s="43">
+        <f>C21</f>
+        <v>174.332728</v>
+      </c>
+      <c r="O5" s="43">
+        <f>D21</f>
+        <v>175.338591</v>
+      </c>
+      <c r="P5" s="43">
+        <f>E21</f>
+        <v>173.829175</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16">
       <c r="B6" s="22" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C6" s="22">
         <v>36.15</v>
@@ -3739,7 +3855,7 @@
       </c>
       <c r="G6" s="23"/>
       <c r="H6" s="22" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I6" s="22">
         <v>12.78</v>
@@ -3750,10 +3866,25 @@
       <c r="K6" s="22">
         <v>45.5</v>
       </c>
+      <c r="M6" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="N6" s="43">
+        <f>C18</f>
+        <v>166.32</v>
+      </c>
+      <c r="O6" s="43">
+        <f>D18</f>
+        <v>159.29</v>
+      </c>
+      <c r="P6" s="43">
+        <f>E18</f>
+        <v>157.26</v>
+      </c>
     </row>
     <row r="7" spans="2:11">
       <c r="B7" s="22" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C7" s="22">
         <v>27.68</v>
@@ -3766,7 +3897,7 @@
       </c>
       <c r="G7" s="23"/>
       <c r="H7" s="24" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="I7" s="24">
         <v>-58.25</v>
@@ -3780,7 +3911,7 @@
     </row>
     <row r="8" spans="2:11">
       <c r="B8" s="22" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C8" s="22">
         <v>56.28</v>
@@ -3792,10 +3923,10 @@
         <v>42.93</v>
       </c>
       <c r="G8" s="23" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="H8" s="22" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="I8" s="22">
         <v>14.7</v>
@@ -3809,7 +3940,7 @@
     </row>
     <row r="9" spans="2:11">
       <c r="B9" s="22" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C9" s="22">
         <v>0.537272</v>
@@ -3822,7 +3953,7 @@
       </c>
       <c r="G9" s="23"/>
       <c r="H9" s="22" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="I9" s="22">
         <v>18.7</v>
@@ -3836,7 +3967,7 @@
     </row>
     <row r="10" spans="2:11">
       <c r="B10" s="22" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C10" s="22">
         <v>5.48</v>
@@ -3849,7 +3980,7 @@
       </c>
       <c r="G10" s="23"/>
       <c r="H10" s="22" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="I10" s="22">
         <v>38.78</v>
@@ -3857,13 +3988,13 @@
       <c r="J10" s="22">
         <v>76.91</v>
       </c>
-      <c r="K10" s="43">
+      <c r="K10" s="45">
         <v>142.93</v>
       </c>
     </row>
     <row r="11" spans="2:11">
       <c r="B11" s="22" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C11" s="22">
         <v>0.852206</v>
@@ -3876,7 +4007,7 @@
       </c>
       <c r="G11" s="23"/>
       <c r="H11" s="22" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="I11" s="22">
         <v>65.14</v>
@@ -3890,7 +4021,7 @@
     </row>
     <row r="12" spans="2:11">
       <c r="B12" s="22" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C12" s="22">
         <v>-0.959153</v>
@@ -3903,7 +4034,7 @@
       </c>
       <c r="G12" s="23"/>
       <c r="H12" s="22" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="I12" s="22">
         <v>12.56</v>
@@ -3917,7 +4048,7 @@
     </row>
     <row r="13" spans="2:11">
       <c r="B13" s="22" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C13" s="22">
         <v>17.27</v>
@@ -3930,7 +4061,7 @@
       </c>
       <c r="G13" s="23"/>
       <c r="H13" s="24" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="I13" s="24">
         <v>-83.07</v>
@@ -3944,7 +4075,7 @@
     </row>
     <row r="14" spans="2:11">
       <c r="B14" s="22" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C14" s="22">
         <v>-0.037517</v>
@@ -3956,10 +4087,10 @@
         <v>-0.010252</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="H14" s="26" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="I14" s="26">
         <f>I4-I5-I6</f>
@@ -3976,7 +4107,7 @@
     </row>
     <row r="15" spans="2:11">
       <c r="B15" s="22" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C15" s="22">
         <v>0.27825</v>
@@ -3995,7 +4126,7 @@
     </row>
     <row r="16" spans="2:12">
       <c r="B16" s="22" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C16" s="22">
         <v>0.483266</v>
@@ -4007,10 +4138,10 @@
         <v>0.392399</v>
       </c>
       <c r="G16" s="28" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="H16" s="29" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="I16" s="29">
         <f>SUM(I14:K14)/3</f>
@@ -4018,16 +4149,16 @@
       </c>
       <c r="J16" s="27"/>
       <c r="K16" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="L16" s="44">
+        <v>124</v>
+      </c>
+      <c r="L16" s="46">
         <f>C18+C10+C6</f>
         <v>207.95</v>
       </c>
     </row>
     <row r="17" spans="2:12">
       <c r="B17" s="22" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C17" s="22">
         <v>3.32</v>
@@ -4040,23 +4171,23 @@
       </c>
       <c r="G17" s="30"/>
       <c r="H17" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="I17" s="45">
+        <v>126</v>
+      </c>
+      <c r="I17" s="47">
         <v>0.08</v>
       </c>
       <c r="J17" s="27"/>
       <c r="K17" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="L17" s="44">
+        <v>127</v>
+      </c>
+      <c r="L17" s="46">
         <f>(L16+C7+C8+C9)/L16</f>
         <v>1.40633456119259</v>
       </c>
     </row>
     <row r="18" spans="2:12">
       <c r="B18" s="22" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="C18" s="22">
         <v>166.32</v>
@@ -4069,23 +4200,23 @@
       </c>
       <c r="G18" s="30"/>
       <c r="H18" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="I18" s="45">
+        <v>128</v>
+      </c>
+      <c r="I18" s="47">
         <v>0.03</v>
       </c>
       <c r="J18" s="27"/>
       <c r="K18" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="L18" s="44">
+        <v>129</v>
+      </c>
+      <c r="L18" s="46">
         <f>L16/(L16-C10)</f>
         <v>1.02706573813404</v>
       </c>
     </row>
     <row r="19" spans="2:12">
       <c r="B19" s="31" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C19" s="31">
         <f>C4-C5</f>
@@ -4101,23 +4232,23 @@
       </c>
       <c r="G19" s="30"/>
       <c r="H19" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="I19" s="45">
+        <v>131</v>
+      </c>
+      <c r="I19" s="47">
         <v>0.1</v>
       </c>
       <c r="J19" s="27"/>
       <c r="K19" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="L19" s="44">
+        <v>132</v>
+      </c>
+      <c r="L19" s="46">
         <f>L17*L18</f>
         <v>1.44439804415469</v>
       </c>
     </row>
     <row r="20" spans="2:11">
       <c r="B20" s="31" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C20" s="32">
         <f>C19/C4</f>
@@ -4133,9 +4264,9 @@
       </c>
       <c r="G20" s="30"/>
       <c r="H20" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="I20" s="46">
+        <v>134</v>
+      </c>
+      <c r="I20" s="48">
         <v>100</v>
       </c>
       <c r="J20" s="27"/>
@@ -4143,7 +4274,7 @@
     </row>
     <row r="21" spans="2:11">
       <c r="B21" s="33" t="s">
-        <v>132</v>
+        <v>99</v>
       </c>
       <c r="C21" s="33">
         <f>C4-C5-C6-C7-C8-C9-C10</f>
@@ -4159,7 +4290,7 @@
       </c>
       <c r="G21" s="30"/>
       <c r="H21" s="29" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="I21" s="29">
         <f>I16*(1+I19)/POWER(1+I17,1)</f>
@@ -4170,7 +4301,7 @@
     </row>
     <row r="22" spans="2:11">
       <c r="B22" s="33" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C22" s="34">
         <f>C21/C4</f>
@@ -4186,7 +4317,7 @@
       </c>
       <c r="G22" s="30"/>
       <c r="H22" s="29" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="I22" s="29">
         <f>I16*POWER(1+I19,2)/POWER(1+I17,2)</f>
@@ -4197,7 +4328,7 @@
     </row>
     <row r="23" spans="2:11">
       <c r="B23" s="35" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C23" s="36">
         <f>C21/I4</f>
@@ -4213,7 +4344,7 @@
       </c>
       <c r="G23" s="30"/>
       <c r="H23" s="29" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="I23" s="29">
         <f>I16*POWER(1+I19,3)/POWER(1+I17,3)</f>
@@ -4224,7 +4355,7 @@
     </row>
     <row r="24" spans="2:11">
       <c r="B24" s="24" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C24" s="37">
         <f>C7/C4</f>
@@ -4240,7 +4371,7 @@
       </c>
       <c r="G24" s="30"/>
       <c r="H24" s="29" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I24" s="29">
         <f>(SUM(I21:I23)*(1+I18))/I17-I18</f>
@@ -4251,7 +4382,7 @@
     </row>
     <row r="25" spans="2:11">
       <c r="B25" s="24" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C25" s="37">
         <f>C8/C4</f>
@@ -4267,7 +4398,7 @@
       </c>
       <c r="G25" s="30"/>
       <c r="H25" s="29" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I25" s="29">
         <f>SUM(I21:I24)</f>
@@ -4278,7 +4409,7 @@
     </row>
     <row r="26" spans="2:9">
       <c r="B26" s="24" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C26" s="37">
         <f>C16/C4</f>
@@ -4294,7 +4425,7 @@
       </c>
       <c r="G26" s="38"/>
       <c r="H26" s="16" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I26" s="16">
         <f>I25/I20</f>
@@ -4303,7 +4434,7 @@
     </row>
     <row r="27" spans="2:5">
       <c r="B27" s="24" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C27" s="37">
         <f>C18/C4</f>
@@ -4320,12 +4451,12 @@
     </row>
     <row r="28" spans="7:10">
       <c r="G28" s="39" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="I28" s="47">
+        <v>148</v>
+      </c>
+      <c r="I28" s="49">
         <v>0.1</v>
       </c>
       <c r="J28" s="22"/>
@@ -4333,9 +4464,9 @@
     <row r="29" spans="7:10">
       <c r="G29" s="40"/>
       <c r="H29" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="I29" s="47">
+        <v>149</v>
+      </c>
+      <c r="I29" s="49">
         <v>0.04</v>
       </c>
       <c r="J29" s="13">
@@ -4346,9 +4477,9 @@
     <row r="30" spans="7:10">
       <c r="G30" s="40"/>
       <c r="H30" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="I30" s="47">
+        <v>150</v>
+      </c>
+      <c r="I30" s="49">
         <v>0.02</v>
       </c>
       <c r="J30" s="13">
@@ -4359,7 +4490,7 @@
     <row r="31" spans="7:10">
       <c r="G31" s="40"/>
       <c r="H31" s="13" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I31" s="13">
         <f>(C18*POWER(1+I28,3))*J29</f>
@@ -4373,7 +4504,7 @@
     <row r="32" spans="7:10">
       <c r="G32" s="40"/>
       <c r="H32" s="13" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="I32" s="13">
         <f>I31*0.7</f>
@@ -4387,7 +4518,7 @@
     <row r="33" spans="7:10">
       <c r="G33" s="41"/>
       <c r="H33" s="13" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="I33" s="13">
         <f>(C18*POWER(1+I28,3))*J30</f>
@@ -4450,15 +4581,15 @@
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="9" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="2:10">
       <c r="B4" s="10" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>0</v>
@@ -4579,7 +4710,7 @@
     <row r="9" spans="2:10">
       <c r="B9" s="10"/>
       <c r="C9" s="12" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D9" s="12">
         <f>'利润&amp;现金流结构分析'!C5</f>
@@ -4594,7 +4725,7 @@
         <v>227.12</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I9" s="12">
         <f>D9</f>
@@ -4605,13 +4736,13 @@
     <row r="10" spans="2:10">
       <c r="B10" s="10"/>
       <c r="C10" s="12" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="H10" s="12" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
@@ -4619,7 +4750,7 @@
     <row r="11" spans="2:10">
       <c r="B11" s="10"/>
       <c r="C11" s="12" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D11" s="12">
         <v>196.74</v>
@@ -4631,7 +4762,7 @@
         <v>182.33</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I11" s="12">
         <f>D11</f>
@@ -4642,7 +4773,7 @@
     <row r="12" spans="2:10">
       <c r="B12" s="10"/>
       <c r="C12" s="12" t="s">
-        <v>132</v>
+        <v>99</v>
       </c>
       <c r="D12" s="12">
         <f>'利润&amp;现金流结构分析'!C21</f>
@@ -4657,7 +4788,7 @@
         <v>173.829175</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>132</v>
+        <v>99</v>
       </c>
       <c r="I12" s="12">
         <f>D12</f>
@@ -4668,7 +4799,7 @@
     <row r="13" spans="2:10">
       <c r="B13" s="10"/>
       <c r="C13" s="12" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D13" s="12">
         <f>'利润&amp;现金流结构分析'!I4</f>
@@ -4683,7 +4814,7 @@
         <v>169.31</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I13" s="12">
         <f>D13</f>
@@ -4694,7 +4825,7 @@
     <row r="14" spans="2:10">
       <c r="B14" s="10"/>
       <c r="C14" s="13" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D14" s="13">
         <v>1.2901867163</v>
@@ -4706,7 +4837,7 @@
         <v>0.597041</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I14" s="13">
         <v>1.2901867163</v>
@@ -4742,7 +4873,7 @@
     <row r="16" spans="2:10">
       <c r="B16" s="10"/>
       <c r="C16" s="13" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D16" s="13">
         <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!D21</f>
@@ -4757,7 +4888,7 @@
         <v>1054.07</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="I16" s="13">
         <f>D16</f>
@@ -4767,176 +4898,176 @@
     </row>
     <row r="22" ht="16.05" spans="3:4">
       <c r="C22" s="15" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" ht="16.05" spans="2:8">
       <c r="B24" s="17" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="18" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G24" s="15"/>
       <c r="H24" s="18" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25" ht="16.05" spans="2:8">
       <c r="B25" s="19"/>
       <c r="C25" s="15" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F25" s="19"/>
       <c r="G25" s="15" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H25" s="18" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" ht="16.05" spans="2:8">
       <c r="B26" s="19"/>
       <c r="C26" s="15" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F26" s="19"/>
       <c r="G26" s="15" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H26" s="18" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27" ht="16.05" spans="2:8">
       <c r="B27" s="19"/>
       <c r="C27" s="15" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F27" s="19"/>
       <c r="G27" s="15" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H27" s="18" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="28" ht="16.05" spans="2:8">
       <c r="B28" s="19"/>
       <c r="C28" s="15" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F28" s="19"/>
       <c r="G28" s="15" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H28" s="18" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="29" ht="16.05" spans="2:8">
       <c r="B29" s="19"/>
       <c r="C29" s="15" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F29" s="19"/>
       <c r="G29" s="15" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H29" s="18" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="30" ht="16.05" spans="2:8">
       <c r="B30" s="19"/>
       <c r="C30" s="15" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F30" s="20"/>
       <c r="G30" s="15" t="s">
         <v>41</v>
       </c>
       <c r="H30" s="18" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="31" ht="16.05" spans="2:4">
       <c r="B31" s="19"/>
       <c r="C31" s="15" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="32" ht="16.05" spans="2:4">
       <c r="B32" s="19"/>
       <c r="C32" s="15" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="33" ht="16.05" spans="2:4">
       <c r="B33" s="20"/>
       <c r="C33" s="15" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="36" ht="18.25" spans="2:8">
       <c r="B36" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="37" ht="18.25" spans="2:8">
       <c r="B37" s="1"/>
       <c r="C37" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>62</v>
@@ -4944,10 +5075,10 @@
       <c r="E37" s="4"/>
       <c r="F37" s="1"/>
       <c r="G37" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="38" ht="18.25" spans="2:8">
@@ -4959,34 +5090,34 @@
       <c r="E38" s="4"/>
       <c r="F38" s="1"/>
       <c r="G38" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="39" ht="18.25" spans="2:8">
       <c r="B39" s="1"/>
       <c r="C39" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="1"/>
       <c r="G39" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="40" ht="18.25" spans="2:8">
       <c r="B40" s="1"/>
       <c r="C40" s="2"/>
       <c r="D40" s="5" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
@@ -4995,10 +5126,10 @@
     </row>
     <row r="41" ht="18.25" spans="7:8">
       <c r="G41" s="6" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -5037,29 +5168,29 @@
   <sheetData>
     <row r="2" ht="18.25" spans="2:8">
       <c r="B2" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" ht="18.25" spans="2:8">
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>62</v>
@@ -5067,10 +5198,10 @@
       <c r="E3" s="4"/>
       <c r="F3" s="1"/>
       <c r="G3" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" ht="18.25" spans="2:8">
@@ -5082,34 +5213,34 @@
       <c r="E4" s="4"/>
       <c r="F4" s="1"/>
       <c r="G4" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" ht="18.25" spans="2:8">
       <c r="B5" s="1"/>
       <c r="C5" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="1"/>
       <c r="G5" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" ht="18.25" spans="2:8">
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
       <c r="D6" s="5" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -5118,10 +5249,10 @@
     </row>
     <row r="7" ht="18.25" spans="7:8">
       <c r="G7" s="6" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
